--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -1768,6 +1768,9 @@
       <c r="I45">
         <v>0.5679120330803951</v>
       </c>
+      <c r="J45">
+        <v>0.2858677898194339</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
@@ -1794,6 +1797,9 @@
       <c r="H46">
         <v>0.5520662240532093</v>
       </c>
+      <c r="I46">
+        <v>0.2775335613519331</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
@@ -1817,6 +1823,9 @@
       <c r="G47">
         <v>0.5207385776695821</v>
       </c>
+      <c r="H47">
+        <v>0.2743085116504074</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
@@ -1837,8 +1846,11 @@
       <c r="F48">
         <v>0.5331267034972994</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <v>0.2534447081011285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1854,8 +1866,11 @@
       <c r="E49">
         <v>0.5482319751491519</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0.2766837437271186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1868,8 +1883,11 @@
       <c r="D50">
         <v>0.4852590561591889</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50">
+        <v>0.2867219094086165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1879,18 +1897,27 @@
       <c r="C51">
         <v>0.5845771063412253</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="D51">
+        <v>0.1751453671933744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
         <v>0.6286367975806744</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="C52">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -489,28 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.08873594589893813</v>
+        <v>0.1844109867082959</v>
       </c>
       <c r="C2">
-        <v>0.5038494199792003</v>
+        <v>0.2434303829804775</v>
       </c>
       <c r="D2">
-        <v>-0.0804002763435806</v>
+        <v>0.7550547198149107</v>
       </c>
       <c r="E2">
-        <v>0.7915875151041314</v>
+        <v>0.6915081552015099</v>
       </c>
       <c r="F2">
-        <v>0.7713506143760337</v>
+        <v>0.4175641082963374</v>
       </c>
       <c r="G2">
-        <v>0.3749201162859844</v>
+        <v>0.5230975067184298</v>
       </c>
       <c r="H2">
-        <v>0.5168869453501342</v>
+        <v>0.6743329343542892</v>
       </c>
       <c r="I2">
-        <v>0.6892623450793038</v>
+        <v>0.188602888553233</v>
+      </c>
+      <c r="J2">
+        <v>0.4647918628642795</v>
+      </c>
+      <c r="K2">
+        <v>0.2901314376394514</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.526277399612209</v>
+        <v>0.2658583626134861</v>
       </c>
       <c r="C3">
-        <v>-0.07779673678113191</v>
+        <v>0.7576582593773593</v>
       </c>
       <c r="D3">
-        <v>0.7695198294501161</v>
+        <v>0.6694404695474946</v>
       </c>
       <c r="E3">
-        <v>0.7653686340716788</v>
+        <v>0.4115821279919825</v>
       </c>
       <c r="F3">
-        <v>0.3695768661035733</v>
+        <v>0.5177542565360187</v>
       </c>
       <c r="G3">
-        <v>0.506518411979768</v>
+        <v>0.663964400983923</v>
       </c>
       <c r="H3">
-        <v>0.68078502295568</v>
+        <v>0.1801255664296092</v>
+      </c>
+      <c r="I3">
+        <v>0.4570195545574687</v>
+      </c>
+      <c r="J3">
+        <v>0.2815074641064828</v>
+      </c>
+      <c r="K3">
+        <v>0.589805676679554</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.05637216532391182</v>
+        <v>0.7790828308345794</v>
       </c>
       <c r="C4">
-        <v>0.8896976782493284</v>
+        <v>0.7896183183467069</v>
       </c>
       <c r="D4">
-        <v>0.6761742896578956</v>
+        <v>0.3223877835781994</v>
       </c>
       <c r="E4">
-        <v>0.3398498622549955</v>
+        <v>0.4880272526874408</v>
       </c>
       <c r="F4">
-        <v>0.5151445320096781</v>
+        <v>0.6725905210138331</v>
       </c>
       <c r="G4">
-        <v>0.6548448495302448</v>
+        <v>0.154185393004174</v>
       </c>
       <c r="H4">
-        <v>0.153883110993772</v>
+        <v>0.4342409915292412</v>
       </c>
       <c r="I4">
-        <v>0.4398642868028766</v>
+        <v>0.267889428957865</v>
       </c>
       <c r="J4">
-        <v>0.2654223397480467</v>
+        <v>0.5712848794943781</v>
       </c>
       <c r="K4">
-        <v>0.570669944985061</v>
+        <v>-0.04166000770222517</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.847377045928939</v>
+        <v>0.7472976860263175</v>
       </c>
       <c r="C5">
-        <v>0.6469698158021624</v>
+        <v>0.2931833097224661</v>
       </c>
       <c r="D5">
-        <v>0.3368292624500743</v>
+        <v>0.4850066528825197</v>
       </c>
       <c r="E5">
-        <v>0.4962832483981977</v>
+        <v>0.6537292374023527</v>
       </c>
       <c r="F5">
-        <v>0.6345137184650405</v>
+        <v>0.1338542619389697</v>
       </c>
       <c r="G5">
-        <v>0.1393529555595242</v>
+        <v>0.4197108360949934</v>
       </c>
       <c r="H5">
-        <v>0.4232232413106087</v>
+        <v>0.251248383465597</v>
       </c>
       <c r="I5">
-        <v>0.2478384943192965</v>
+        <v>0.553701034065628</v>
       </c>
       <c r="J5">
-        <v>0.5541960614550182</v>
+        <v>-0.05813389123226798</v>
+      </c>
+      <c r="K5">
+        <v>0.6310880987550094</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.9871675564200725</v>
+        <v>0.6333810503403763</v>
       </c>
       <c r="C6">
-        <v>0.4122003242340114</v>
+        <v>0.5603777146664568</v>
       </c>
       <c r="D6">
-        <v>0.3051899620851986</v>
+        <v>0.4626359510893536</v>
       </c>
       <c r="E6">
-        <v>0.6592076310517737</v>
+        <v>0.1585481745257029</v>
       </c>
       <c r="F6">
-        <v>0.1487323591158202</v>
+        <v>0.4290902396512893</v>
       </c>
       <c r="G6">
-        <v>0.3684124426992176</v>
+        <v>0.196437584854206</v>
       </c>
       <c r="H6">
-        <v>0.2289444034306267</v>
+        <v>0.5348069431769582</v>
       </c>
       <c r="I6">
-        <v>0.5393320606399725</v>
+        <v>-0.07299789204731372</v>
+      </c>
+      <c r="J6">
+        <v>0.6023763881256388</v>
+      </c>
+      <c r="K6">
+        <v>0.3304428394308724</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.862895196224262</v>
+        <v>1.011072586656707</v>
       </c>
       <c r="C7">
-        <v>0.352300664297557</v>
+        <v>0.509746653301712</v>
       </c>
       <c r="D7">
-        <v>0.4189244002609654</v>
+        <v>-0.08173505626510533</v>
       </c>
       <c r="E7">
-        <v>0.184677440181683</v>
+        <v>0.4650353207171521</v>
       </c>
       <c r="F7">
-        <v>0.3663616852596248</v>
+        <v>0.1943868274146131</v>
       </c>
       <c r="G7">
-        <v>0.1523761639945965</v>
+        <v>0.458238703740928</v>
       </c>
       <c r="H7">
-        <v>0.511932666264689</v>
+        <v>-0.1003972864225971</v>
+      </c>
+      <c r="I7">
+        <v>0.5760873379279133</v>
+      </c>
+      <c r="J7">
+        <v>0.2870455487175398</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,31 +696,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.6646262512210954</v>
+        <v>0.8220722402252505</v>
       </c>
       <c r="C8">
-        <v>0.5522131399964898</v>
+        <v>0.051553683470419</v>
       </c>
       <c r="D8">
-        <v>0.005599018365491398</v>
+        <v>0.2859568989009605</v>
       </c>
       <c r="E8">
-        <v>0.394555924030192</v>
+        <v>0.2225810661851803</v>
       </c>
       <c r="F8">
-        <v>0.18840147518699</v>
+        <v>0.4942640149333215</v>
       </c>
       <c r="G8">
-        <v>0.4743910960604755</v>
+        <v>-0.1379388566268107</v>
       </c>
       <c r="H8">
-        <v>-0.1178263863585594</v>
+        <v>0.5705449988405521</v>
       </c>
       <c r="I8">
-        <v>0.5679120330803951</v>
-      </c>
-      <c r="J8">
-        <v>0.2858677898194339</v>
+        <v>0.2912208776562884</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -698,28 +725,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.787803631104331</v>
+        <v>0.2871441745782602</v>
       </c>
       <c r="C9">
-        <v>0.09027775923980097</v>
+        <v>0.3706356397752701</v>
       </c>
       <c r="D9">
-        <v>0.2489555573964748</v>
+        <v>0.07698069955146319</v>
       </c>
       <c r="E9">
-        <v>0.1983552180462326</v>
+        <v>0.5042177577925642</v>
       </c>
       <c r="F9">
-        <v>0.4897562657600204</v>
+        <v>-0.1225736869272658</v>
       </c>
       <c r="G9">
-        <v>-0.1566747213159825</v>
+        <v>0.5316966638831291</v>
       </c>
       <c r="H9">
-        <v>0.5520662240532093</v>
-      </c>
-      <c r="I9">
-        <v>0.2775335613519331</v>
+        <v>0.2753750686291025</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,25 +751,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4013019457211838</v>
+        <v>0.6816598262566529</v>
       </c>
       <c r="C10">
-        <v>0.36604433180767</v>
+        <v>0.1940694739626584</v>
       </c>
       <c r="D10">
-        <v>0.03589107659666579</v>
+        <v>0.3417536163429973</v>
       </c>
       <c r="E10">
-        <v>0.518715216225222</v>
+        <v>-0.0936147364620642</v>
       </c>
       <c r="F10">
-        <v>-0.1209318488610789</v>
+        <v>0.5674395363380327</v>
       </c>
       <c r="G10">
-        <v>0.5207385776695821</v>
-      </c>
-      <c r="H10">
-        <v>0.2743085116504074</v>
+        <v>0.2440474222454754</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -753,22 +774,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.6128695092117844</v>
+        <v>0.4408946513667728</v>
       </c>
       <c r="C11">
-        <v>0.0535469441345553</v>
+        <v>0.3594094838808868</v>
       </c>
       <c r="D11">
-        <v>0.4240929771142275</v>
+        <v>-0.1882369755730587</v>
       </c>
       <c r="E11">
-        <v>-0.0887144606125988</v>
+        <v>0.5996569245865127</v>
       </c>
       <c r="F11">
-        <v>0.5331267034972994</v>
-      </c>
-      <c r="G11">
-        <v>0.2534447081011285</v>
+        <v>0.2564355480731927</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -776,19 +794,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2932233035507672</v>
+        <v>0.5990858432970987</v>
       </c>
       <c r="C12">
-        <v>0.509117220583441</v>
+        <v>-0.1032127321038452</v>
       </c>
       <c r="D12">
-        <v>-0.2051990389706129</v>
+        <v>0.4831723462284986</v>
       </c>
       <c r="E12">
-        <v>0.5482319751491519</v>
-      </c>
-      <c r="F12">
-        <v>0.2766837437271186</v>
+        <v>0.2715408197250452</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -796,16 +811,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.6739772976175282</v>
+        <v>0.0616473449302421</v>
       </c>
       <c r="C13">
-        <v>-0.1916617667226967</v>
+        <v>0.4967096184764148</v>
       </c>
       <c r="D13">
-        <v>0.4852590561591889</v>
-      </c>
-      <c r="E13">
-        <v>0.2867219094086165</v>
+        <v>0.2085679007350822</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -813,13 +825,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.06218727514271133</v>
+        <v>0.7505586603418228</v>
       </c>
       <c r="C14">
-        <v>0.5845771063412253</v>
-      </c>
-      <c r="D14">
-        <v>0.1751453671933744</v>
+        <v>0.3078859509171186</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -827,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6286367975806744</v>
-      </c>
-      <c r="C15">
-        <v>0.1965658720679752</v>
+        <v>0.3519456421565676</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1844109867082959</v>
+        <v>0.08873594589893813</v>
       </c>
       <c r="C2">
-        <v>0.2434303829804775</v>
+        <v>0.5038494199792003</v>
       </c>
       <c r="D2">
-        <v>0.7550547198149107</v>
+        <v>-0.0804002763435806</v>
       </c>
       <c r="E2">
-        <v>0.6915081552015099</v>
+        <v>0.7915875151041314</v>
       </c>
       <c r="F2">
-        <v>0.4175641082963374</v>
+        <v>0.7713506143760337</v>
       </c>
       <c r="G2">
-        <v>0.5230975067184298</v>
+        <v>0.3749201162859844</v>
       </c>
       <c r="H2">
-        <v>0.6743329343542892</v>
+        <v>0.5168869453501342</v>
       </c>
       <c r="I2">
-        <v>0.188602888553233</v>
+        <v>0.6892623450793038</v>
       </c>
       <c r="J2">
-        <v>0.4647918628642795</v>
+        <v>0.1844339823288103</v>
       </c>
       <c r="K2">
-        <v>0.2901314376394514</v>
+        <v>0.4621062954844631</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2658583626134861</v>
+        <v>0.526277399612209</v>
       </c>
       <c r="C3">
-        <v>0.7576582593773593</v>
+        <v>-0.07779673678113191</v>
       </c>
       <c r="D3">
-        <v>0.6694404695474946</v>
+        <v>0.7695198294501161</v>
       </c>
       <c r="E3">
-        <v>0.4115821279919825</v>
+        <v>0.7653686340716788</v>
       </c>
       <c r="F3">
-        <v>0.5177542565360187</v>
+        <v>0.3695768661035733</v>
       </c>
       <c r="G3">
-        <v>0.663964400983923</v>
+        <v>0.506518411979768</v>
       </c>
       <c r="H3">
-        <v>0.1801255664296092</v>
+        <v>0.68078502295568</v>
       </c>
       <c r="I3">
-        <v>0.4570195545574687</v>
+        <v>0.1766616740219995</v>
       </c>
       <c r="J3">
-        <v>0.2815074641064828</v>
+        <v>0.4534823219514945</v>
       </c>
       <c r="K3">
-        <v>0.589805676679554</v>
+        <v>0.2839431369332225</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.7790828308345794</v>
+        <v>-0.05637216532391182</v>
       </c>
       <c r="C4">
-        <v>0.7896183183467069</v>
+        <v>0.8896976782493284</v>
       </c>
       <c r="D4">
-        <v>0.3223877835781994</v>
+        <v>0.6761742896578956</v>
       </c>
       <c r="E4">
-        <v>0.4880272526874408</v>
+        <v>0.3398498622549955</v>
       </c>
       <c r="F4">
-        <v>0.6725905210138331</v>
+        <v>0.5151445320096781</v>
       </c>
       <c r="G4">
-        <v>0.154185393004174</v>
+        <v>0.6548448495302448</v>
       </c>
       <c r="H4">
-        <v>0.4342409915292412</v>
+        <v>0.153883110993772</v>
       </c>
       <c r="I4">
-        <v>0.267889428957865</v>
+        <v>0.4398642868028766</v>
       </c>
       <c r="J4">
-        <v>0.5712848794943781</v>
+        <v>0.2654223397480467</v>
       </c>
       <c r="K4">
-        <v>-0.04166000770222517</v>
+        <v>0.570669944985061</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7472976860263175</v>
+        <v>0.847377045928939</v>
       </c>
       <c r="C5">
-        <v>0.2931833097224661</v>
+        <v>0.6469698158021624</v>
       </c>
       <c r="D5">
-        <v>0.4850066528825197</v>
+        <v>0.3368292624500743</v>
       </c>
       <c r="E5">
-        <v>0.6537292374023527</v>
+        <v>0.4962832483981977</v>
       </c>
       <c r="F5">
-        <v>0.1338542619389697</v>
+        <v>0.6345137184650405</v>
       </c>
       <c r="G5">
-        <v>0.4197108360949934</v>
+        <v>0.1393529555595242</v>
       </c>
       <c r="H5">
-        <v>0.251248383465597</v>
+        <v>0.4232232413106087</v>
       </c>
       <c r="I5">
-        <v>0.553701034065628</v>
+        <v>0.2478384943192965</v>
       </c>
       <c r="J5">
-        <v>-0.05813389123226798</v>
+        <v>0.5541960614550182</v>
       </c>
       <c r="K5">
-        <v>0.6310880987550094</v>
+        <v>-0.05728328644410208</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.6333810503403763</v>
+        <v>0.9871675564200725</v>
       </c>
       <c r="C6">
-        <v>0.5603777146664568</v>
+        <v>0.4122003242340114</v>
       </c>
       <c r="D6">
-        <v>0.4626359510893536</v>
+        <v>0.3051899620851986</v>
       </c>
       <c r="E6">
-        <v>0.1585481745257029</v>
+        <v>0.6592076310517737</v>
       </c>
       <c r="F6">
-        <v>0.4290902396512893</v>
+        <v>0.1487323591158202</v>
       </c>
       <c r="G6">
-        <v>0.196437584854206</v>
+        <v>0.3684124426992176</v>
       </c>
       <c r="H6">
-        <v>0.5348069431769582</v>
+        <v>0.2289444034306267</v>
       </c>
       <c r="I6">
-        <v>-0.07299789204731372</v>
+        <v>0.5393320606399725</v>
       </c>
       <c r="J6">
-        <v>0.6023763881256388</v>
+        <v>-0.0859949970734728</v>
       </c>
       <c r="K6">
-        <v>0.3304428394308724</v>
+        <v>0.6071339948549791</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +664,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.011072586656707</v>
+        <v>0.862895196224262</v>
       </c>
       <c r="C7">
-        <v>0.509746653301712</v>
+        <v>0.352300664297557</v>
       </c>
       <c r="D7">
-        <v>-0.08173505626510533</v>
+        <v>0.4189244002609654</v>
       </c>
       <c r="E7">
-        <v>0.4650353207171521</v>
+        <v>0.184677440181683</v>
       </c>
       <c r="F7">
-        <v>0.1943868274146131</v>
+        <v>0.3663616852596248</v>
       </c>
       <c r="G7">
-        <v>0.458238703740928</v>
+        <v>0.1523761639945965</v>
       </c>
       <c r="H7">
-        <v>-0.1003972864225971</v>
+        <v>0.511932666264689</v>
       </c>
       <c r="I7">
-        <v>0.5760873379279133</v>
+        <v>-0.1122840472711982</v>
       </c>
       <c r="J7">
-        <v>0.2870455487175398</v>
+        <v>0.5637367041416466</v>
+      </c>
+      <c r="K7">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +699,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.8220722402252505</v>
+        <v>0.6646262512210954</v>
       </c>
       <c r="C8">
-        <v>0.051553683470419</v>
+        <v>0.5522131399964898</v>
       </c>
       <c r="D8">
-        <v>0.2859568989009605</v>
+        <v>0.005599018365491398</v>
       </c>
       <c r="E8">
-        <v>0.2225810661851803</v>
+        <v>0.394555924030192</v>
       </c>
       <c r="F8">
-        <v>0.4942640149333215</v>
+        <v>0.18840147518699</v>
       </c>
       <c r="G8">
-        <v>-0.1379388566268107</v>
+        <v>0.4743910960604755</v>
       </c>
       <c r="H8">
-        <v>0.5705449988405521</v>
+        <v>-0.1178263863585594</v>
       </c>
       <c r="I8">
-        <v>0.2912208776562884</v>
+        <v>0.5679120330803951</v>
+      </c>
+      <c r="J8">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,25 +731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2871441745782602</v>
+        <v>0.787803631104331</v>
       </c>
       <c r="C9">
-        <v>0.3706356397752701</v>
+        <v>0.09027775923980097</v>
       </c>
       <c r="D9">
-        <v>0.07698069955146319</v>
+        <v>0.2489555573964748</v>
       </c>
       <c r="E9">
-        <v>0.5042177577925642</v>
+        <v>0.1983552180462326</v>
       </c>
       <c r="F9">
-        <v>-0.1225736869272658</v>
+        <v>0.4897562657600204</v>
       </c>
       <c r="G9">
-        <v>0.5316966638831291</v>
+        <v>-0.1566747213159825</v>
       </c>
       <c r="H9">
-        <v>0.2753750686291025</v>
+        <v>0.5520662240532093</v>
+      </c>
+      <c r="I9">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +760,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.6816598262566529</v>
+        <v>0.4013019457211838</v>
       </c>
       <c r="C10">
-        <v>0.1940694739626584</v>
+        <v>0.36604433180767</v>
       </c>
       <c r="D10">
-        <v>0.3417536163429973</v>
+        <v>0.03589107659666579</v>
       </c>
       <c r="E10">
-        <v>-0.0936147364620642</v>
+        <v>0.518715216225222</v>
       </c>
       <c r="F10">
-        <v>0.5674395363380327</v>
+        <v>-0.1209318488610789</v>
       </c>
       <c r="G10">
-        <v>0.2440474222454754</v>
+        <v>0.5207385776695821</v>
+      </c>
+      <c r="H10">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +786,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.4408946513667728</v>
+        <v>0.6128695092117844</v>
       </c>
       <c r="C11">
-        <v>0.3594094838808868</v>
+        <v>0.0535469441345553</v>
       </c>
       <c r="D11">
-        <v>-0.1882369755730587</v>
+        <v>0.4240929771142275</v>
       </c>
       <c r="E11">
-        <v>0.5996569245865127</v>
+        <v>-0.0887144606125988</v>
       </c>
       <c r="F11">
-        <v>0.2564355480731927</v>
+        <v>0.5331267034972994</v>
+      </c>
+      <c r="G11">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +809,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5990858432970987</v>
+        <v>0.2932233035507672</v>
       </c>
       <c r="C12">
-        <v>-0.1032127321038452</v>
+        <v>0.509117220583441</v>
       </c>
       <c r="D12">
-        <v>0.4831723462284986</v>
+        <v>-0.2051990389706129</v>
       </c>
       <c r="E12">
-        <v>0.2715408197250452</v>
+        <v>0.5482319751491519</v>
+      </c>
+      <c r="F12">
+        <v>0.2766837437271186</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,13 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0616473449302421</v>
+        <v>0.6739772976175282</v>
       </c>
       <c r="C13">
-        <v>0.4967096184764148</v>
+        <v>-0.1916617667226967</v>
       </c>
       <c r="D13">
-        <v>0.2085679007350822</v>
+        <v>0.4852590561591889</v>
+      </c>
+      <c r="E13">
+        <v>0.2867219094086165</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -825,10 +846,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.7505586603418228</v>
+        <v>0.06218727514271133</v>
       </c>
       <c r="C14">
-        <v>0.3078859509171186</v>
+        <v>0.5845771063412253</v>
+      </c>
+      <c r="D14">
+        <v>0.1751453671933744</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3519456421565676</v>
+        <v>0.6286367975806744</v>
+      </c>
+      <c r="C15">
+        <v>0.1965658720679752</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,34 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.08873594589893813</v>
+        <v>0.1387258295087148</v>
       </c>
       <c r="C2">
-        <v>0.5038494199792003</v>
+        <v>-1.108058710991597</v>
       </c>
       <c r="D2">
-        <v>-0.0804002763435806</v>
+        <v>0.8851185611728787</v>
       </c>
       <c r="E2">
-        <v>0.7915875151041314</v>
+        <v>0.9117748252361084</v>
       </c>
       <c r="F2">
-        <v>0.7713506143760337</v>
-      </c>
-      <c r="G2">
-        <v>0.3749201162859844</v>
-      </c>
-      <c r="H2">
-        <v>0.5168869453501342</v>
-      </c>
-      <c r="I2">
-        <v>0.6892623450793038</v>
-      </c>
-      <c r="J2">
-        <v>0.1844339823288103</v>
-      </c>
-      <c r="K2">
-        <v>0.4621062954844631</v>
+        <v>2.491486668238587</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.526277399612209</v>
+        <v>0.9742375452893979</v>
       </c>
       <c r="C3">
-        <v>-0.07779673678113191</v>
+        <v>1.146268636026862</v>
       </c>
       <c r="D3">
-        <v>0.7695198294501161</v>
+        <v>2.571588104554334</v>
       </c>
       <c r="E3">
-        <v>0.7653686340716788</v>
+        <v>4.278618733469487</v>
       </c>
       <c r="F3">
-        <v>0.3695768661035733</v>
+        <v>0.1360918897151798</v>
       </c>
       <c r="G3">
-        <v>0.506518411979768</v>
+        <v>-0.2734749322353217</v>
       </c>
       <c r="H3">
-        <v>0.68078502295568</v>
-      </c>
-      <c r="I3">
-        <v>0.1766616740219995</v>
-      </c>
-      <c r="J3">
-        <v>0.4534823219514945</v>
-      </c>
-      <c r="K3">
-        <v>0.2839431369332225</v>
+        <v>0.4412752551244291</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.05637216532391182</v>
+        <v>2.259466549980567</v>
       </c>
       <c r="C4">
-        <v>0.8896976782493284</v>
+        <v>4.009846602177808</v>
       </c>
       <c r="D4">
-        <v>0.6761742896578956</v>
+        <v>-0.003632072030382572</v>
       </c>
       <c r="E4">
-        <v>0.3398498622549955</v>
+        <v>-0.3945338838339597</v>
       </c>
       <c r="F4">
-        <v>0.5151445320096781</v>
-      </c>
-      <c r="G4">
-        <v>0.6548448495302448</v>
-      </c>
-      <c r="H4">
-        <v>0.153883110993772</v>
-      </c>
-      <c r="I4">
-        <v>0.4398642868028766</v>
-      </c>
-      <c r="J4">
-        <v>0.2654223397480467</v>
-      </c>
-      <c r="K4">
-        <v>0.570669944985061</v>
+        <v>0.3413909918622716</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.847377045928939</v>
+        <v>-3.527165018025478</v>
       </c>
       <c r="C5">
-        <v>0.6469698158021624</v>
+        <v>-4.194866941985784</v>
       </c>
       <c r="D5">
-        <v>0.3368292624500743</v>
+        <v>-3.400804676587123</v>
       </c>
       <c r="E5">
-        <v>0.4962832483981977</v>
+        <v>-3.607162334754717</v>
       </c>
       <c r="F5">
-        <v>0.6345137184650405</v>
+        <v>-5.631143553418469</v>
       </c>
       <c r="G5">
-        <v>0.1393529555595242</v>
+        <v>-4.170085781885787</v>
       </c>
       <c r="H5">
-        <v>0.4232232413106087</v>
-      </c>
-      <c r="I5">
-        <v>0.2478384943192965</v>
-      </c>
-      <c r="J5">
-        <v>0.5541960614550182</v>
-      </c>
-      <c r="K5">
-        <v>-0.05728328644410208</v>
+        <v>-3.851825796448033</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.9871675564200725</v>
+        <v>0.4300824997775672</v>
       </c>
       <c r="C6">
-        <v>0.4122003242340114</v>
+        <v>0.1699579459496955</v>
       </c>
       <c r="D6">
-        <v>0.3051899620851986</v>
+        <v>-1.895801069259907</v>
       </c>
       <c r="E6">
-        <v>0.6592076310517737</v>
+        <v>-0.430313677873085</v>
       </c>
       <c r="F6">
-        <v>0.1487323591158202</v>
-      </c>
-      <c r="G6">
-        <v>0.3684124426992176</v>
-      </c>
-      <c r="H6">
-        <v>0.2289444034306267</v>
-      </c>
-      <c r="I6">
-        <v>0.5393320606399725</v>
-      </c>
-      <c r="J6">
-        <v>-0.0859949970734728</v>
-      </c>
-      <c r="K6">
-        <v>0.6071339948549791</v>
+        <v>-0.1047730947538109</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.862895196224262</v>
+        <v>-1.989998630103643</v>
       </c>
       <c r="C7">
-        <v>0.352300664297557</v>
+        <v>-0.4942038271424709</v>
       </c>
       <c r="D7">
-        <v>0.4189244002609654</v>
+        <v>-0.1566194359998404</v>
       </c>
       <c r="E7">
-        <v>0.184677440181683</v>
+        <v>-1.289379291298852</v>
       </c>
       <c r="F7">
-        <v>0.3663616852596248</v>
+        <v>0.09118581917023769</v>
       </c>
       <c r="G7">
-        <v>0.1523761639945965</v>
+        <v>-0.2923846733047236</v>
       </c>
       <c r="H7">
-        <v>0.511932666264689</v>
-      </c>
-      <c r="I7">
-        <v>-0.1122840472711982</v>
-      </c>
-      <c r="J7">
-        <v>0.5637367041416466</v>
-      </c>
-      <c r="K7">
-        <v>0.2970525035592049</v>
+        <v>0.3925851069086056</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.6646262512210954</v>
+        <v>0.1630846444411361</v>
       </c>
       <c r="C8">
-        <v>0.5522131399964898</v>
+        <v>-1.088872551767469</v>
       </c>
       <c r="D8">
-        <v>0.005599018365491398</v>
+        <v>0.2388572144868575</v>
       </c>
       <c r="E8">
-        <v>0.394555924030192</v>
+        <v>-0.1694399950501343</v>
       </c>
       <c r="F8">
-        <v>0.18840147518699</v>
-      </c>
-      <c r="G8">
-        <v>0.4743910960604755</v>
-      </c>
-      <c r="H8">
-        <v>-0.1178263863585594</v>
-      </c>
-      <c r="I8">
-        <v>0.5679120330803951</v>
-      </c>
-      <c r="J8">
-        <v>0.2858677898194339</v>
+        <v>0.5040425926957953</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.787803631104331</v>
+        <v>0.6966127121850244</v>
       </c>
       <c r="C9">
-        <v>0.09027775923980097</v>
+        <v>0.03971143396413679</v>
       </c>
       <c r="D9">
-        <v>0.2489555573964748</v>
+        <v>0.6050679262073962</v>
       </c>
       <c r="E9">
-        <v>0.1983552180462326</v>
+        <v>-0.1390344077924999</v>
       </c>
       <c r="F9">
-        <v>0.4897562657600204</v>
+        <v>0.07771993578465181</v>
       </c>
       <c r="G9">
-        <v>-0.1566747213159825</v>
+        <v>0.1045584651549948</v>
       </c>
       <c r="H9">
-        <v>0.5520662240532093</v>
-      </c>
-      <c r="I9">
-        <v>0.2775335613519331</v>
+        <v>0.9267429767877318</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4013019457211838</v>
+        <v>0.5889366529896609</v>
       </c>
       <c r="C10">
-        <v>0.36604433180767</v>
+        <v>-0.1629753181314043</v>
       </c>
       <c r="D10">
-        <v>0.03589107659666579</v>
+        <v>0.05339438235456767</v>
       </c>
       <c r="E10">
-        <v>0.518715216225222</v>
+        <v>0.08260390735964929</v>
       </c>
       <c r="F10">
-        <v>-0.1209318488610789</v>
-      </c>
-      <c r="G10">
-        <v>0.5207385776695821</v>
-      </c>
-      <c r="H10">
-        <v>0.2743085116504074</v>
+        <v>0.906862924893769</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.6128695092117844</v>
+        <v>0.135347353279659</v>
       </c>
       <c r="C11">
-        <v>0.0535469441345553</v>
+        <v>0.0918012475915978</v>
       </c>
       <c r="D11">
-        <v>0.4240929771142275</v>
+        <v>0.8871553623927978</v>
       </c>
       <c r="E11">
-        <v>-0.0887144606125988</v>
+        <v>0.2212014561932883</v>
       </c>
       <c r="F11">
-        <v>0.5331267034972994</v>
+        <v>-0.4400216186372514</v>
       </c>
       <c r="G11">
-        <v>0.2534447081011285</v>
+        <v>-0.04180104165272297</v>
+      </c>
+      <c r="H11">
+        <v>-0.1034922560287353</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2932233035507672</v>
+        <v>0.8583540716299061</v>
       </c>
       <c r="C12">
-        <v>0.509117220583441</v>
+        <v>0.219077672514715</v>
       </c>
       <c r="D12">
-        <v>-0.2051990389706129</v>
+        <v>-0.4327386538548288</v>
       </c>
       <c r="E12">
-        <v>0.5482319751491519</v>
+        <v>-0.03138452870947878</v>
       </c>
       <c r="F12">
-        <v>0.2766837437271186</v>
+        <v>-0.09205111059441351</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.6739772976175282</v>
+        <v>-0.5546208149506421</v>
       </c>
       <c r="C13">
-        <v>-0.1916617667226967</v>
+        <v>-0.1232296976428027</v>
       </c>
       <c r="D13">
-        <v>0.4852590561591889</v>
+        <v>-0.1719238571658218</v>
       </c>
       <c r="E13">
-        <v>0.2867219094086165</v>
+        <v>-0.6008843017759042</v>
+      </c>
+      <c r="F13">
+        <v>0.3800526390729398</v>
+      </c>
+      <c r="G13">
+        <v>0.1538132908583271</v>
+      </c>
+      <c r="H13">
+        <v>-0.4792866254931878</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.06218727514271133</v>
+        <v>-0.07660908550845907</v>
       </c>
       <c r="C14">
-        <v>0.5845771063412253</v>
+        <v>-0.5226165970886194</v>
       </c>
       <c r="D14">
-        <v>0.1751453671933744</v>
+        <v>0.4506431296588137</v>
+      </c>
+      <c r="E14">
+        <v>0.2208746131534756</v>
+      </c>
+      <c r="F14">
+        <v>-0.4138532542967197</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6286367975806744</v>
+        <v>0.7107656714615536</v>
       </c>
       <c r="C15">
-        <v>0.1965658720679752</v>
+        <v>0.3617805447359003</v>
+      </c>
+      <c r="D15">
+        <v>-0.3284087146615119</v>
+      </c>
+      <c r="E15">
+        <v>0.07258913989446059</v>
+      </c>
+      <c r="F15">
+        <v>-0.106032695953167</v>
+      </c>
+      <c r="G15">
+        <v>0.01096152432303771</v>
+      </c>
+      <c r="H15">
+        <v>0.0555349373482778</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.5260169647433546</v>
+      </c>
+      <c r="C16">
+        <v>-0.05137068376835741</v>
+      </c>
+      <c r="D16">
+        <v>-0.1974123165853111</v>
+      </c>
+      <c r="E16">
+        <v>-0.06599669411565129</v>
+      </c>
+      <c r="F16">
+        <v>-0.01502993377330319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.1300102632924844</v>
+      </c>
+      <c r="C17">
+        <v>0.00888099880676374</v>
+      </c>
+      <c r="D17">
+        <v>0.06313616294635133</v>
+      </c>
+      <c r="E17">
+        <v>-0.3304359561846383</v>
+      </c>
+      <c r="F17">
+        <v>-0.07506199009359621</v>
+      </c>
+      <c r="G17">
+        <v>0.1456359881641034</v>
+      </c>
+      <c r="H17">
+        <v>-0.08990357932170889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.05077946203237782</v>
+      </c>
+      <c r="C18">
+        <v>-0.344626946110449</v>
+      </c>
+      <c r="D18">
+        <v>-0.09000824431623794</v>
+      </c>
+      <c r="E18">
+        <v>0.1303795298704019</v>
+      </c>
+      <c r="F18">
+        <v>-0.1052864881356162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.0822944582731665</v>
+      </c>
+      <c r="C19">
+        <v>0.2248716626294139</v>
+      </c>
+      <c r="D19">
+        <v>-0.04696104924847117</v>
+      </c>
+      <c r="E19">
+        <v>-0.2426806063420137</v>
+      </c>
+      <c r="F19">
+        <v>-0.2610220372837692</v>
+      </c>
+      <c r="G19">
+        <v>-0.4723563104746108</v>
+      </c>
+      <c r="H19">
+        <v>-0.2568270884946112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-0.1414695961309799</v>
+      </c>
+      <c r="C20">
+        <v>-0.2791950053566942</v>
+      </c>
+      <c r="D20">
+        <v>-0.2708243371007503</v>
+      </c>
+      <c r="E20">
+        <v>-0.4698642071905083</v>
+      </c>
+      <c r="F20">
+        <v>-0.2486761060184952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.1284196148407921</v>
+      </c>
+      <c r="C21">
+        <v>-0.3892880536239818</v>
+      </c>
+      <c r="D21">
+        <v>-0.1956617690156243</v>
+      </c>
+      <c r="E21">
+        <v>0.1035623046680138</v>
+      </c>
+      <c r="F21">
+        <v>-0.05538318383206281</v>
+      </c>
+      <c r="G21">
+        <v>0.5929841687531761</v>
+      </c>
+      <c r="H21">
+        <v>0.3759056446645694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.01772937608965819</v>
+      </c>
+      <c r="C22">
+        <v>0.1904199002428446</v>
+      </c>
+      <c r="D22">
+        <v>-0.01245745804686382</v>
+      </c>
+      <c r="E22">
+        <v>0.6148928434241717</v>
+      </c>
+      <c r="F22">
+        <v>0.3877598625592121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.2009879203755026</v>
+      </c>
+      <c r="C23">
+        <v>-0.003682669475092215</v>
+      </c>
+      <c r="D23">
+        <v>0.6226952474679071</v>
+      </c>
+      <c r="E23">
+        <v>0.3950699233937206</v>
+      </c>
+      <c r="F23">
+        <v>-0.01742125293059998</v>
+      </c>
+      <c r="G23">
+        <v>0.4790177347602291</v>
+      </c>
+      <c r="H23">
+        <v>0.3189281133539701</v>
+      </c>
+      <c r="I23">
+        <v>0.3745006084643348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.1106570732907728</v>
+      </c>
+      <c r="C24">
+        <v>0.5574356245296381</v>
+      </c>
+      <c r="D24">
+        <v>0.3494793248607413</v>
+      </c>
+      <c r="E24">
+        <v>-0.0537519294468537</v>
+      </c>
+      <c r="F24">
+        <v>0.4470476400263193</v>
+      </c>
+      <c r="G24">
+        <v>0.2890118858004561</v>
+      </c>
+      <c r="H24">
+        <v>0.3455519702652192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.5913088222741343</v>
+      </c>
+      <c r="C25">
+        <v>0.3522324851175385</v>
+      </c>
+      <c r="D25">
+        <v>-0.06534086029760827</v>
+      </c>
+      <c r="E25">
+        <v>0.4289262259694052</v>
+      </c>
+      <c r="F25">
+        <v>0.267911772437701</v>
+      </c>
+      <c r="G25">
+        <v>0.3230936335787457</v>
+      </c>
+      <c r="H25">
+        <v>2.57245120070562</v>
+      </c>
+      <c r="I25">
+        <v>10.04139962167697</v>
+      </c>
+      <c r="J25">
+        <v>-8.129953734994666</v>
+      </c>
+      <c r="K25">
+        <v>0.009676295449283501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.09495705561128835</v>
+      </c>
+      <c r="C26">
+        <v>-0.1966201317798049</v>
+      </c>
+      <c r="D26">
+        <v>0.3555705446956575</v>
+      </c>
+      <c r="E26">
+        <v>0.2206704977705274</v>
+      </c>
+      <c r="F26">
+        <v>0.2876467492000076</v>
+      </c>
+      <c r="G26">
+        <v>2.542330314111783</v>
+      </c>
+      <c r="H26">
+        <v>10.01368383765935</v>
+      </c>
+      <c r="I26">
+        <v>-8.156583427754628</v>
+      </c>
+      <c r="J26">
+        <v>-0.01646294162652273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.2398842457485278</v>
+      </c>
+      <c r="C27">
+        <v>0.3272291486687826</v>
+      </c>
+      <c r="D27">
+        <v>0.1959944722584051</v>
+      </c>
+      <c r="E27">
+        <v>0.2633601162231758</v>
+      </c>
+      <c r="F27">
+        <v>2.517707017856339</v>
+      </c>
+      <c r="G27">
+        <v>9.988700664718653</v>
+      </c>
+      <c r="H27">
+        <v>-8.181813387285533</v>
+      </c>
+      <c r="I27">
+        <v>-0.04183851343822592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.4374203038949512</v>
+      </c>
+      <c r="C28">
+        <v>0.2521171062027519</v>
+      </c>
+      <c r="D28">
+        <v>0.2974419321570869</v>
+      </c>
+      <c r="E28">
+        <v>2.542806401728791</v>
+      </c>
+      <c r="F28">
+        <v>10.0101393154344</v>
+      </c>
+      <c r="G28">
+        <v>-8.161866677895206</v>
+      </c>
+      <c r="H28">
+        <v>-0.02249986200433229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.09526702093765275</v>
+      </c>
+      <c r="C29">
+        <v>0.2022742013914471</v>
+      </c>
+      <c r="D29">
+        <v>2.48837927106286</v>
+      </c>
+      <c r="E29">
+        <v>9.973585328022629</v>
+      </c>
+      <c r="F29">
+        <v>-8.18953186637841</v>
+      </c>
+      <c r="G29">
+        <v>-0.04590700167627143</v>
+      </c>
+      <c r="H29">
+        <v>2.10360890909983</v>
+      </c>
+      <c r="I29">
+        <v>-1.335467850351198</v>
+      </c>
+      <c r="J29">
+        <v>-1.396174332378672</v>
+      </c>
+      <c r="K29">
+        <v>0.6455109801188312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.1534105877790901</v>
+      </c>
+      <c r="C30">
+        <v>2.460610420786189</v>
+      </c>
+      <c r="D30">
+        <v>9.956365482985138</v>
+      </c>
+      <c r="E30">
+        <v>-8.201626982332003</v>
+      </c>
+      <c r="F30">
+        <v>-0.05549112916037019</v>
+      </c>
+      <c r="G30">
+        <v>2.095251978282879</v>
+      </c>
+      <c r="H30">
+        <v>-1.343224567749304</v>
+      </c>
+      <c r="I30">
+        <v>-1.403637555454572</v>
+      </c>
+      <c r="J30">
+        <v>0.6381912792035592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.411890494383244</v>
+      </c>
+      <c r="C31">
+        <v>9.92193721478214</v>
+      </c>
+      <c r="D31">
+        <v>-8.223290710431124</v>
+      </c>
+      <c r="E31">
+        <v>-0.07183142456167213</v>
+      </c>
+      <c r="F31">
+        <v>2.081653800328259</v>
+      </c>
+      <c r="G31">
+        <v>-1.355506304286811</v>
+      </c>
+      <c r="H31">
+        <v>-1.415272994794689</v>
+      </c>
+      <c r="I31">
+        <v>0.6268708474646307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>9.006385916832064</v>
+      </c>
+      <c r="C32">
+        <v>-8.778729625081095</v>
+      </c>
+      <c r="D32">
+        <v>-0.3907511347594377</v>
+      </c>
+      <c r="E32">
+        <v>1.872451415860664</v>
+      </c>
+      <c r="F32">
+        <v>-1.508723736095618</v>
+      </c>
+      <c r="G32">
+        <v>-1.540727864400714</v>
+      </c>
+      <c r="H32">
+        <v>0.5152984556711749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-15.94395950766804</v>
+      </c>
+      <c r="C33">
+        <v>-6.165405932306377</v>
+      </c>
+      <c r="D33">
+        <v>-2.769606545071355</v>
+      </c>
+      <c r="E33">
+        <v>-5.259251564727762</v>
+      </c>
+      <c r="F33">
+        <v>-4.596813033215097</v>
+      </c>
+      <c r="G33">
+        <v>-2.004406315493971</v>
+      </c>
+      <c r="H33">
+        <v>-2.167512971069056</v>
+      </c>
+      <c r="I33">
+        <v>-1.752444458287939</v>
+      </c>
+      <c r="J33">
+        <v>-1.769680808856052</v>
+      </c>
+      <c r="K33">
+        <v>-0.7490691824930543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-4.485224785737152</v>
+      </c>
+      <c r="C34">
+        <v>4.64643821743735</v>
+      </c>
+      <c r="D34">
+        <v>-3.011195248502669</v>
+      </c>
+      <c r="E34">
+        <v>-0.6154520180259231</v>
+      </c>
+      <c r="F34">
+        <v>-0.02622441358399569</v>
+      </c>
+      <c r="G34">
+        <v>0.2444932750012651</v>
+      </c>
+      <c r="H34">
+        <v>-0.1624340797869752</v>
+      </c>
+      <c r="I34">
+        <v>-0.1271082625462527</v>
+      </c>
+      <c r="J34">
+        <v>0.5342534572142679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.9192316907193552</v>
+      </c>
+      <c r="C35">
+        <v>-1.148324593739046</v>
+      </c>
+      <c r="D35">
+        <v>-1.376360942196903</v>
+      </c>
+      <c r="E35">
+        <v>0.5240065820382563</v>
+      </c>
+      <c r="F35">
+        <v>-0.0027599659219745</v>
+      </c>
+      <c r="G35">
+        <v>0.09815006083404601</v>
+      </c>
+      <c r="H35">
+        <v>-0.1708892827759409</v>
+      </c>
+      <c r="I35">
+        <v>0.665940954683469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.740092140117276</v>
+      </c>
+      <c r="C36">
+        <v>-1.124737898310509</v>
+      </c>
+      <c r="D36">
+        <v>0.442100528215121</v>
+      </c>
+      <c r="E36">
+        <v>0.07233208345931114</v>
+      </c>
+      <c r="F36">
+        <v>0.2040572213477698</v>
+      </c>
+      <c r="G36">
+        <v>-0.1124726366172855</v>
+      </c>
+      <c r="H36">
+        <v>0.7323796385135606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-1.230237110159324</v>
+      </c>
+      <c r="C37">
+        <v>0.3159952442497632</v>
+      </c>
+      <c r="D37">
+        <v>0.2405801520925428</v>
+      </c>
+      <c r="E37">
+        <v>0.2647213139516521</v>
+      </c>
+      <c r="F37">
+        <v>-0.1013397972426526</v>
+      </c>
+      <c r="G37">
+        <v>0.7952423898404911</v>
+      </c>
+      <c r="H37">
+        <v>0.6987028198275607</v>
+      </c>
+      <c r="I37">
+        <v>0.3273262721328529</v>
+      </c>
+      <c r="J37">
+        <v>0.4815930032504782</v>
+      </c>
+      <c r="K37">
+        <v>0.6412615601838532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.2884453755979755</v>
+      </c>
+      <c r="C38">
+        <v>0.1763767747378494</v>
+      </c>
+      <c r="D38">
+        <v>0.5562686220088688</v>
+      </c>
+      <c r="E38">
+        <v>-0.1390466733285862</v>
+      </c>
+      <c r="F38">
+        <v>0.78665836976703</v>
+      </c>
+      <c r="G38">
+        <v>0.7824438974249289</v>
+      </c>
+      <c r="H38">
+        <v>0.3621534170608979</v>
+      </c>
+      <c r="I38">
+        <v>0.5081573863027752</v>
+      </c>
+      <c r="J38">
+        <v>0.686760400930452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0.08873594589893813</v>
+      </c>
+      <c r="C39">
+        <v>0.5038494199792003</v>
+      </c>
+      <c r="D39">
+        <v>-0.0804002763435806</v>
+      </c>
+      <c r="E39">
+        <v>0.7915875151041314</v>
+      </c>
+      <c r="F39">
+        <v>0.7713506143760337</v>
+      </c>
+      <c r="G39">
+        <v>0.3749201162859844</v>
+      </c>
+      <c r="H39">
+        <v>0.5168869453501342</v>
+      </c>
+      <c r="I39">
+        <v>0.6892623450793038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.526277399612209</v>
+      </c>
+      <c r="C40">
+        <v>-0.07779673678113191</v>
+      </c>
+      <c r="D40">
+        <v>0.7695198294501161</v>
+      </c>
+      <c r="E40">
+        <v>0.7653686340716788</v>
+      </c>
+      <c r="F40">
+        <v>0.3695768661035733</v>
+      </c>
+      <c r="G40">
+        <v>0.506518411979768</v>
+      </c>
+      <c r="H40">
+        <v>0.68078502295568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.05637216532391182</v>
+      </c>
+      <c r="C41">
+        <v>0.8896976782493284</v>
+      </c>
+      <c r="D41">
+        <v>0.6761742896578956</v>
+      </c>
+      <c r="E41">
+        <v>0.3398498622549955</v>
+      </c>
+      <c r="F41">
+        <v>0.5151445320096781</v>
+      </c>
+      <c r="G41">
+        <v>0.6548448495302448</v>
+      </c>
+      <c r="H41">
+        <v>0.153883110993772</v>
+      </c>
+      <c r="I41">
+        <v>0.4398642868028766</v>
+      </c>
+      <c r="J41">
+        <v>0.2654223397480467</v>
+      </c>
+      <c r="K41">
+        <v>0.570669944985061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.847377045928939</v>
+      </c>
+      <c r="C42">
+        <v>0.6469698158021624</v>
+      </c>
+      <c r="D42">
+        <v>0.3368292624500743</v>
+      </c>
+      <c r="E42">
+        <v>0.4962832483981977</v>
+      </c>
+      <c r="F42">
+        <v>0.6345137184650405</v>
+      </c>
+      <c r="G42">
+        <v>0.1393529555595242</v>
+      </c>
+      <c r="H42">
+        <v>0.4232232413106087</v>
+      </c>
+      <c r="I42">
+        <v>0.2478384943192965</v>
+      </c>
+      <c r="J42">
+        <v>0.5541960614550182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.9871675564200725</v>
+      </c>
+      <c r="C43">
+        <v>0.4122003242340114</v>
+      </c>
+      <c r="D43">
+        <v>0.3051899620851986</v>
+      </c>
+      <c r="E43">
+        <v>0.6592076310517737</v>
+      </c>
+      <c r="F43">
+        <v>0.1487323591158202</v>
+      </c>
+      <c r="G43">
+        <v>0.3684124426992176</v>
+      </c>
+      <c r="H43">
+        <v>0.2289444034306267</v>
+      </c>
+      <c r="I43">
+        <v>0.5393320606399725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.862895196224262</v>
+      </c>
+      <c r="C44">
+        <v>0.352300664297557</v>
+      </c>
+      <c r="D44">
+        <v>0.4189244002609654</v>
+      </c>
+      <c r="E44">
+        <v>0.184677440181683</v>
+      </c>
+      <c r="F44">
+        <v>0.3663616852596248</v>
+      </c>
+      <c r="G44">
+        <v>0.1523761639945965</v>
+      </c>
+      <c r="H44">
+        <v>0.511932666264689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.6646262512210954</v>
+      </c>
+      <c r="C45">
+        <v>0.5522131399964898</v>
+      </c>
+      <c r="D45">
+        <v>0.005599018365491398</v>
+      </c>
+      <c r="E45">
+        <v>0.394555924030192</v>
+      </c>
+      <c r="F45">
+        <v>0.18840147518699</v>
+      </c>
+      <c r="G45">
+        <v>0.4743910960604755</v>
+      </c>
+      <c r="H45">
+        <v>-0.1178263863585594</v>
+      </c>
+      <c r="I45">
+        <v>0.5679120330803951</v>
+      </c>
+      <c r="J45">
+        <v>0.2858677898194339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.787803631104331</v>
+      </c>
+      <c r="C46">
+        <v>0.09027775923980097</v>
+      </c>
+      <c r="D46">
+        <v>0.2489555573964748</v>
+      </c>
+      <c r="E46">
+        <v>0.1983552180462326</v>
+      </c>
+      <c r="F46">
+        <v>0.4897562657600204</v>
+      </c>
+      <c r="G46">
+        <v>-0.1566747213159825</v>
+      </c>
+      <c r="H46">
+        <v>0.5520662240532093</v>
+      </c>
+      <c r="I46">
+        <v>0.2775335613519331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.4013019457211838</v>
+      </c>
+      <c r="C47">
+        <v>0.36604433180767</v>
+      </c>
+      <c r="D47">
+        <v>0.03589107659666579</v>
+      </c>
+      <c r="E47">
+        <v>0.518715216225222</v>
+      </c>
+      <c r="F47">
+        <v>-0.1209318488610789</v>
+      </c>
+      <c r="G47">
+        <v>0.5207385776695821</v>
+      </c>
+      <c r="H47">
+        <v>0.2743085116504074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.6128695092117844</v>
+      </c>
+      <c r="C48">
+        <v>0.0535469441345553</v>
+      </c>
+      <c r="D48">
+        <v>0.4240929771142275</v>
+      </c>
+      <c r="E48">
+        <v>-0.0887144606125988</v>
+      </c>
+      <c r="F48">
+        <v>0.5331267034972994</v>
+      </c>
+      <c r="G48">
+        <v>0.2534447081011285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0.2932233035507672</v>
+      </c>
+      <c r="C49">
+        <v>0.509117220583441</v>
+      </c>
+      <c r="D49">
+        <v>-0.2051990389706129</v>
+      </c>
+      <c r="E49">
+        <v>0.5482319751491519</v>
+      </c>
+      <c r="F49">
+        <v>0.2766837437271186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.6739772976175282</v>
+      </c>
+      <c r="C50">
+        <v>-0.1916617667226967</v>
+      </c>
+      <c r="D50">
+        <v>0.4852590561591889</v>
+      </c>
+      <c r="E50">
+        <v>0.2867219094086165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>0.06218727514271133</v>
+      </c>
+      <c r="C51">
+        <v>0.5845771063412253</v>
+      </c>
+      <c r="D51">
+        <v>0.1751453671933744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.6286367975806744</v>
+      </c>
+      <c r="C52">
+        <v>0.1965658720679752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>0.4328090033804217</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Q0</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-10-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,6 +1923,11 @@
         <v>0.4328090033804217</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
